--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/94.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/94.xlsx
@@ -479,13 +479,13 @@
         <v>-16.14455205427583</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.02426300265547</v>
+        <v>-13.83527355320801</v>
       </c>
       <c r="F2" t="n">
-        <v>-5.342833953047131</v>
+        <v>-5.486233413460613</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.268051522135234</v>
+        <v>-6.900500874887435</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-15.99561958914642</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.05523486115738</v>
+        <v>-13.88970286665737</v>
       </c>
       <c r="F3" t="n">
-        <v>-5.467034283494238</v>
+        <v>-5.673149923996506</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.411226088232838</v>
+        <v>-6.999087698358775</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-15.90698932473537</v>
       </c>
       <c r="E4" t="n">
-        <v>-14.4043099514551</v>
+        <v>-14.22065929750631</v>
       </c>
       <c r="F4" t="n">
-        <v>-5.573981308708002</v>
+        <v>-5.867043047331485</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.141700028666683</v>
+        <v>-6.69352476917659</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-15.9095264599738</v>
       </c>
       <c r="E5" t="n">
-        <v>-14.30739027932538</v>
+        <v>-14.14005913029835</v>
       </c>
       <c r="F5" t="n">
-        <v>-5.207428018861054</v>
+        <v>-5.45001076158364</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.077360698298083</v>
+        <v>-6.618341621577172</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-15.97122633655866</v>
       </c>
       <c r="E6" t="n">
-        <v>-14.4698324214855</v>
+        <v>-14.29083121306714</v>
       </c>
       <c r="F6" t="n">
-        <v>-5.227771176434287</v>
+        <v>-5.526660611243132</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.927620195978212</v>
+        <v>-6.374521960117256</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-16.09314823390089</v>
       </c>
       <c r="E7" t="n">
-        <v>-14.85425503143102</v>
+        <v>-14.73232808917703</v>
       </c>
       <c r="F7" t="n">
-        <v>-5.118985884638563</v>
+        <v>-5.484532039070927</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.659032825730505</v>
+        <v>-6.061214844057879</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-16.23943242192291</v>
       </c>
       <c r="E8" t="n">
-        <v>-15.17875797321564</v>
+        <v>-15.02970193185713</v>
       </c>
       <c r="F8" t="n">
-        <v>-5.110268785394854</v>
+        <v>-5.466516048766345</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.691378495162015</v>
+        <v>-6.141286998524213</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-16.39501606475242</v>
       </c>
       <c r="E9" t="n">
-        <v>-15.47221083238847</v>
+        <v>-15.31821200508752</v>
       </c>
       <c r="F9" t="n">
-        <v>-4.884597117424926</v>
+        <v>-5.300969387245738</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.342230069761284</v>
+        <v>-5.85822327894357</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-16.53019572647979</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.87475210178278</v>
+        <v>-15.70340218911115</v>
       </c>
       <c r="F10" t="n">
-        <v>-4.707839963158484</v>
+        <v>-4.998955877048934</v>
       </c>
       <c r="G10" t="n">
-        <v>-6.319628191015536</v>
+        <v>-5.897369556926958</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-16.62049762754601</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.03116120946912</v>
+        <v>-15.82251306340979</v>
       </c>
       <c r="F11" t="n">
-        <v>-4.860010301891211</v>
+        <v>-5.189016019000253</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.986295702829275</v>
+        <v>-5.541728530406965</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-16.65561472796804</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.50514553620966</v>
+        <v>-16.31515384035448</v>
       </c>
       <c r="F12" t="n">
-        <v>-4.585737016657283</v>
+        <v>-4.909359937205851</v>
       </c>
       <c r="G12" t="n">
-        <v>-5.88446746780517</v>
+        <v>-5.527169067957292</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-16.61604168037828</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.9581755795186</v>
+        <v>-16.77876858353029</v>
       </c>
       <c r="F13" t="n">
-        <v>-4.333938495990562</v>
+        <v>-4.641046351342691</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.950811290989206</v>
+        <v>-5.686795142162065</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-16.52227559300831</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.273208515002</v>
+        <v>-17.13225844702884</v>
       </c>
       <c r="F14" t="n">
-        <v>-4.053084607513766</v>
+        <v>-4.322703558210391</v>
       </c>
       <c r="G14" t="n">
-        <v>-5.740368879409719</v>
+        <v>-5.54073606201298</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-16.37327029526071</v>
       </c>
       <c r="E15" t="n">
-        <v>-17.57967591045456</v>
+        <v>-17.48703411933339</v>
       </c>
       <c r="F15" t="n">
-        <v>-3.925921538905308</v>
+        <v>-4.23372363323254</v>
       </c>
       <c r="G15" t="n">
-        <v>-5.490633519640836</v>
+        <v>-5.386042995736925</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-16.20805136366589</v>
       </c>
       <c r="E16" t="n">
-        <v>-18.07355360613657</v>
+        <v>-17.92414066727679</v>
       </c>
       <c r="F16" t="n">
-        <v>-3.479682326134513</v>
+        <v>-3.789127126769028</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.175136128505081</v>
+        <v>-5.08973495655381</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-16.03084845587118</v>
       </c>
       <c r="E17" t="n">
-        <v>-18.76984107511574</v>
+        <v>-18.64727367296218</v>
       </c>
       <c r="F17" t="n">
-        <v>-3.304137645571065</v>
+        <v>-3.570300068412782</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.111359033926176</v>
+        <v>-5.143103355513055</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-15.87775409417497</v>
       </c>
       <c r="E18" t="n">
-        <v>-19.32203484470631</v>
+        <v>-19.20032301875446</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.922697329814361</v>
+        <v>-3.194868342095516</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.886494052089289</v>
+        <v>-4.993607303536529</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-15.74281909983431</v>
       </c>
       <c r="E19" t="n">
-        <v>-19.77441465010195</v>
+        <v>-19.64003540735793</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.637174439779661</v>
+        <v>-2.856529510877534</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.62436017090591</v>
+        <v>-4.667588769623173</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-15.64860961427396</v>
       </c>
       <c r="E20" t="n">
-        <v>-20.24450243836956</v>
+        <v>-20.10535641393029</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.294029714811501</v>
+        <v>-2.583175358934585</v>
       </c>
       <c r="G20" t="n">
-        <v>-4.560441295127864</v>
+        <v>-4.60957581414036</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-15.57878350686608</v>
       </c>
       <c r="E21" t="n">
-        <v>-20.79075117560997</v>
+        <v>-20.67514571923489</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.078654295303297</v>
+        <v>-2.344782495096945</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.576511460699414</v>
+        <v>-4.621861888396917</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-15.5419228014348</v>
       </c>
       <c r="E22" t="n">
-        <v>-21.22350161843494</v>
+        <v>-21.08478582659997</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.821155192629754</v>
+        <v>-2.060056513181553</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.468356850789521</v>
+        <v>-4.558573694504703</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-15.52022196200795</v>
       </c>
       <c r="E23" t="n">
-        <v>-21.55731811830103</v>
+        <v>-21.4807318257308</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.664462522545129</v>
+        <v>-1.900616221237722</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.454124951799932</v>
+        <v>-4.555850517679831</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-15.50901822435217</v>
       </c>
       <c r="E24" t="n">
-        <v>-21.99902033269932</v>
+        <v>-21.94520214510833</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.50391242604251</v>
+        <v>-1.743620432727349</v>
       </c>
       <c r="G24" t="n">
-        <v>-4.535003792399306</v>
+        <v>-4.638489400751295</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-15.49809254909323</v>
       </c>
       <c r="E25" t="n">
-        <v>-22.45948166644597</v>
+        <v>-22.42561062687199</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.350216717167304</v>
+        <v>-1.589470046213521</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.647944740031908</v>
+        <v>-4.740840759510159</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-15.47050229630934</v>
       </c>
       <c r="E26" t="n">
-        <v>-22.31100741690464</v>
+        <v>-22.23336998785803</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.165671374961866</v>
+        <v>-1.431388898178693</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.709854233987652</v>
+        <v>-4.747753815219977</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-15.42482161862683</v>
       </c>
       <c r="E27" t="n">
-        <v>-22.5721830527421</v>
+        <v>-22.59421780669129</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.006793318807731</v>
+        <v>-1.201884248825105</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.706383039112143</v>
+        <v>-4.72871602248021</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-15.33725774384245</v>
       </c>
       <c r="E28" t="n">
-        <v>-22.55864539272761</v>
+        <v>-22.49173444474701</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.8314881995807615</v>
+        <v>-1.064488488844194</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.625122855977149</v>
+        <v>-4.677650345755284</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-15.21485093637879</v>
       </c>
       <c r="E29" t="n">
-        <v>-22.72101908879159</v>
+        <v>-22.60948128612979</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.8877704466326863</v>
+        <v>-1.109809582500496</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.475661027048693</v>
+        <v>-4.528472079225108</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-15.03528802541796</v>
       </c>
       <c r="E30" t="n">
-        <v>-22.80415665056348</v>
+        <v>-22.78584731984688</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.690626133731208</v>
+        <v>-0.8986924879733743</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.680089960181874</v>
+        <v>-4.748844063751299</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-14.81136007319263</v>
       </c>
       <c r="E31" t="n">
-        <v>-22.76527926795777</v>
+        <v>-22.69534691373342</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.8203852649859976</v>
+        <v>-0.9744916504380237</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.484119008928455</v>
+        <v>-4.537942085526322</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-14.5300801329911</v>
       </c>
       <c r="E32" t="n">
-        <v>-22.67705225003742</v>
+        <v>-22.641103382545</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.7493577732234572</v>
+        <v>-0.9248486747113693</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.459175295893456</v>
+        <v>-4.52903920402167</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-14.21264496526873</v>
       </c>
       <c r="E33" t="n">
-        <v>-22.4369433447895</v>
+        <v>-22.41645351701026</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.7364899071497371</v>
+        <v>-0.8869686495065123</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.325025836472176</v>
+        <v>-4.412553726410554</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-13.85312883824375</v>
       </c>
       <c r="E34" t="n">
-        <v>-22.19513795415875</v>
+        <v>-22.15735570909123</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.850604216430399</v>
+        <v>-1.015857537538991</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.014407674189601</v>
+        <v>-4.09039750792206</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-13.47498593237349</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.01458204155671</v>
+        <v>-21.96951028725063</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.8374772329927322</v>
+        <v>-0.9482670176038919</v>
       </c>
       <c r="G35" t="n">
-        <v>-3.834345551281124</v>
+        <v>-3.865077848446552</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-13.07867902789455</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.02381248652145</v>
+        <v>-21.9407140368045</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.9839225446843026</v>
+        <v>-1.146912255613513</v>
       </c>
       <c r="G36" t="n">
-        <v>-3.797501995532053</v>
+        <v>-3.858795474622566</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-12.68389940468414</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.53665228627458</v>
+        <v>-21.46033000007517</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.066028526007272</v>
+        <v>-1.187403010485303</v>
       </c>
       <c r="G37" t="n">
-        <v>-3.723237981223615</v>
+        <v>-3.788222660498648</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-12.29688644462746</v>
       </c>
       <c r="E38" t="n">
-        <v>-21.48787955377023</v>
+        <v>-21.43952727585645</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.311036216135848</v>
+        <v>-1.450148017527046</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.357770050901122</v>
+        <v>-3.429501559652498</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-11.92676870294138</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.92804426644667</v>
+        <v>-20.93166213152819</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.273469087370473</v>
+        <v>-1.421337100060316</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.2871092346536</v>
+        <v>-3.319098006583824</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-11.58487541155531</v>
       </c>
       <c r="E40" t="n">
-        <v>-20.65345808477326</v>
+        <v>-20.61878035906623</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.478093580778332</v>
+        <v>-1.601066770501844</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.12188524758621</v>
+        <v>-3.13161437125137</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-11.26628650143498</v>
       </c>
       <c r="E41" t="n">
-        <v>-20.15060906149046</v>
+        <v>-20.1363136054116</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.340600040660083</v>
+        <v>-1.471649869727738</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.838567299648488</v>
+        <v>-2.834773430319762</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-10.9795954724478</v>
       </c>
       <c r="E42" t="n">
-        <v>-19.6427585841828</v>
+        <v>-19.66194793613544</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.412140878143649</v>
+        <v>-1.570490921556157</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.522483227688703</v>
+        <v>-2.513971466733404</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-10.70721909729358</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.28452638402334</v>
+        <v>-19.36445186828367</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.530058834766771</v>
+        <v>-1.76674054620099</v>
       </c>
       <c r="G43" t="n">
-        <v>-2.373114289890717</v>
+        <v>-2.325637144206107</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-10.45723914421497</v>
       </c>
       <c r="E44" t="n">
-        <v>-18.88621410556891</v>
+        <v>-18.99532207181785</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.510703256580654</v>
+        <v>-1.770739753818127</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.354746291091718</v>
+        <v>-2.282398767475111</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-10.21093905992081</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.59090342378665</v>
+        <v>-18.75411802903174</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.591689655331101</v>
+        <v>-1.865425149809669</v>
       </c>
       <c r="G45" t="n">
-        <v>-1.995741627847286</v>
+        <v>-1.852552394729081</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-9.976236663360206</v>
       </c>
       <c r="E46" t="n">
-        <v>-18.161888182208</v>
+        <v>-18.36193167618156</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.56601748027293</v>
+        <v>-1.822509447531889</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.048454899886364</v>
+        <v>-1.944446167799615</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-9.736823209644223</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.73366495974178</v>
+        <v>-17.95901884226536</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.669283083315908</v>
+        <v>-1.956859356234712</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.066299774950603</v>
+        <v>-1.913381418167237</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-9.498709160323116</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.30658087587556</v>
+        <v>-17.55731359304529</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.757158092741837</v>
+        <v>-2.045863726246898</v>
       </c>
       <c r="G48" t="n">
-        <v>-1.954761972288805</v>
+        <v>-1.831578555270016</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-9.248497470265592</v>
       </c>
       <c r="E49" t="n">
-        <v>-17.03077244248542</v>
+        <v>-17.2608246606081</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.7623355510139</v>
+        <v>-2.074200410047538</v>
       </c>
       <c r="G49" t="n">
-        <v>-1.935386838075221</v>
+        <v>-1.749790359393396</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-8.991660587350422</v>
       </c>
       <c r="E50" t="n">
-        <v>-16.60454882382777</v>
+        <v>-16.83553484226204</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.78715214987036</v>
+        <v>-2.109992829320222</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.084359766316987</v>
+        <v>-1.919629568943155</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-8.722310787272963</v>
       </c>
       <c r="E51" t="n">
-        <v>-16.46169693218339</v>
+        <v>-16.77884680764016</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.619620551561786</v>
+        <v>-1.948323150245078</v>
       </c>
       <c r="G51" t="n">
-        <v>-1.953226824132594</v>
+        <v>-1.734595326051025</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-8.445882305540279</v>
       </c>
       <c r="E52" t="n">
-        <v>-16.04376506917203</v>
+        <v>-16.33337516894747</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.624837121888784</v>
+        <v>-1.903769630666883</v>
       </c>
       <c r="G52" t="n">
-        <v>-1.808512220871912</v>
+        <v>-1.542604026387274</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-8.164623212092147</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.0609401502955</v>
+        <v>-16.34495722621519</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.664672749840407</v>
+        <v>-1.917229066571499</v>
       </c>
       <c r="G53" t="n">
-        <v>-1.993042896056749</v>
+        <v>-1.732981953784943</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-7.879666984172972</v>
       </c>
       <c r="E54" t="n">
-        <v>-15.71133215824928</v>
+        <v>-15.96734011382842</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.598896051452933</v>
+        <v>-1.834702630657975</v>
       </c>
       <c r="G54" t="n">
-        <v>-1.875457391900578</v>
+        <v>-1.627271847308507</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-7.599306647890959</v>
       </c>
       <c r="E55" t="n">
-        <v>-15.39452451327319</v>
+        <v>-15.64271494687213</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.568007306067765</v>
+        <v>-1.805539704696827</v>
       </c>
       <c r="G55" t="n">
-        <v>-2.243897838398155</v>
+        <v>-1.94756046517384</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-7.318432999560141</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.27807814771701</v>
+        <v>-15.55090428691833</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.640472165849178</v>
+        <v>-1.874787597959811</v>
       </c>
       <c r="G56" t="n">
-        <v>-2.136481468525167</v>
+        <v>-1.860008130201127</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-7.049218759686034</v>
       </c>
       <c r="E57" t="n">
-        <v>-15.18125625572463</v>
+        <v>-15.47114991789835</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.702899894532815</v>
+        <v>-1.937802007467477</v>
       </c>
       <c r="G57" t="n">
-        <v>-2.132027583269408</v>
+        <v>-1.779891974672992</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-6.783948598268854</v>
       </c>
       <c r="E58" t="n">
-        <v>-14.75793181813906</v>
+        <v>-14.95366809706287</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.550768667855023</v>
+        <v>-1.805148584147474</v>
       </c>
       <c r="G58" t="n">
-        <v>-2.475147863203233</v>
+        <v>-2.141746928920834</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-6.532490402955284</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.8249845473188</v>
+        <v>-15.05677725188611</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.597219122097581</v>
+        <v>-1.848802526462158</v>
       </c>
       <c r="G59" t="n">
-        <v>-2.648683161944378</v>
+        <v>-2.290358070654448</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-6.287721901541159</v>
       </c>
       <c r="E60" t="n">
-        <v>-14.72254029742947</v>
+        <v>-14.91003371077565</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.589597160392061</v>
+        <v>-1.816970202751675</v>
       </c>
       <c r="G60" t="n">
-        <v>-2.572698217218786</v>
+        <v>-2.166338633461417</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-6.056714341487977</v>
       </c>
       <c r="E61" t="n">
-        <v>-14.72363543496765</v>
+        <v>-14.94804573916592</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.663836729666164</v>
+        <v>-1.881109083838732</v>
       </c>
       <c r="G61" t="n">
-        <v>-2.889623198359681</v>
+        <v>-2.496649715403924</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-5.832600387180895</v>
       </c>
       <c r="E62" t="n">
-        <v>-14.50908625761996</v>
+        <v>-14.69834949145197</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.593816373318209</v>
+        <v>-1.806145941548325</v>
       </c>
       <c r="G62" t="n">
-        <v>-3.064522530016696</v>
+        <v>-2.659424310030991</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-5.621864152002371</v>
       </c>
       <c r="E63" t="n">
-        <v>-14.57415405001173</v>
+        <v>-14.76400396466777</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.682796298296061</v>
+        <v>-1.859030328827744</v>
       </c>
       <c r="G63" t="n">
-        <v>-3.315157467049091</v>
+        <v>-2.904627560434243</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-5.418979814743976</v>
       </c>
       <c r="E64" t="n">
-        <v>-14.70034909526054</v>
+        <v>-14.88187792022909</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.718402935307802</v>
+        <v>-1.901594022611105</v>
       </c>
       <c r="G64" t="n">
-        <v>-3.490262136994517</v>
+        <v>-3.087813758730679</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-5.227816633696674</v>
       </c>
       <c r="E65" t="n">
-        <v>-14.73596551028601</v>
+        <v>-14.85590262674517</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.92951025182119</v>
+        <v>-2.111674647682441</v>
       </c>
       <c r="G65" t="n">
-        <v>-3.574846844799012</v>
+        <v>-3.177101691141147</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-5.044954626724973</v>
       </c>
       <c r="E66" t="n">
-        <v>-14.72366965801572</v>
+        <v>-14.94269227664665</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.896074333858358</v>
+        <v>-2.089209661128967</v>
       </c>
       <c r="G66" t="n">
-        <v>-3.884008083035246</v>
+        <v>-3.515763196812345</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-4.871188623499553</v>
       </c>
       <c r="E67" t="n">
-        <v>-14.89214972365648</v>
+        <v>-15.07033446792806</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.073139495557417</v>
+        <v>-2.26872421526835</v>
       </c>
       <c r="G67" t="n">
-        <v>-4.023584340078801</v>
+        <v>-3.646920584031073</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-4.70702920761811</v>
       </c>
       <c r="E68" t="n">
-        <v>-14.99977143181788</v>
+        <v>-15.15215688685275</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.124943412319248</v>
+        <v>-2.322566847893684</v>
       </c>
       <c r="G68" t="n">
-        <v>-3.992676038666165</v>
+        <v>-3.666706394821477</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-4.550246877011875</v>
       </c>
       <c r="E69" t="n">
-        <v>-15.17529655635386</v>
+        <v>-15.35745606320824</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.137249042603273</v>
+        <v>-2.290040285208099</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.057289153419313</v>
+        <v>-3.718216971171293</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-4.405333442686483</v>
       </c>
       <c r="E70" t="n">
-        <v>-15.13628228155588</v>
+        <v>-15.33261013031058</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.253529181925978</v>
+        <v>-2.416474891793386</v>
       </c>
       <c r="G70" t="n">
-        <v>-3.946088692231332</v>
+        <v>-3.639860858115247</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-4.267662667425779</v>
       </c>
       <c r="E71" t="n">
-        <v>-15.34746293317227</v>
+        <v>-15.56126409246933</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.275290151490616</v>
+        <v>-2.433654861923725</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.118934641004243</v>
+        <v>-3.867815692292024</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-4.14366003443763</v>
       </c>
       <c r="E72" t="n">
-        <v>-15.62756880359843</v>
+        <v>-15.83370888913503</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.443799551172574</v>
+        <v>-2.613154749042508</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.230384441542436</v>
+        <v>-3.989674188449879</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-4.027539910434456</v>
       </c>
       <c r="E73" t="n">
-        <v>-15.64788751613733</v>
+        <v>-15.86762881877768</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.526203761914425</v>
+        <v>-2.692811337925153</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.078942564832879</v>
+        <v>-3.870147748567542</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-3.923981245650797</v>
       </c>
       <c r="E74" t="n">
-        <v>-16.03187011546483</v>
+        <v>-16.30340555685328</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.688357452669393</v>
+        <v>-2.857820208690399</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.044255061112118</v>
+        <v>-3.880605334255873</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-3.826738170648061</v>
       </c>
       <c r="E75" t="n">
-        <v>-16.09089020636222</v>
+        <v>-16.31994995609092</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.89163746918885</v>
+        <v>-3.051581328839973</v>
       </c>
       <c r="G75" t="n">
-        <v>-3.912999893756052</v>
+        <v>-3.795297053435074</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-3.739270847481107</v>
       </c>
       <c r="E76" t="n">
-        <v>-16.4560647962727</v>
+        <v>-16.61002940052559</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.970673154199397</v>
+        <v>-3.107081334793191</v>
       </c>
       <c r="G76" t="n">
-        <v>-3.918544027543133</v>
+        <v>-3.842959981380628</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-3.655940447001194</v>
       </c>
       <c r="E77" t="n">
-        <v>-16.88581827788826</v>
+        <v>-17.08915696249012</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.0442478185396</v>
+        <v>-3.207081081249069</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.705613111468387</v>
+        <v>-3.629554831639791</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-3.58062769724692</v>
       </c>
       <c r="E78" t="n">
-        <v>-17.41948271145323</v>
+        <v>-17.62490411298039</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.255677809506204</v>
+        <v>-3.443816571758825</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.532024033651704</v>
+        <v>-3.475169772796351</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-3.510923176042265</v>
       </c>
       <c r="E79" t="n">
-        <v>-17.90233080764348</v>
+        <v>-18.09005400431241</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.259769908253812</v>
+        <v>-3.436869293000939</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.424358324428503</v>
+        <v>-3.416912366970192</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-3.454288371889489</v>
       </c>
       <c r="E80" t="n">
-        <v>-18.48860584410332</v>
+        <v>-18.71026363743551</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.408767281529911</v>
+        <v>-3.609329010231364</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.206186392992424</v>
+        <v>-3.208552672316011</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-3.412245924364394</v>
       </c>
       <c r="E81" t="n">
-        <v>-19.07768717050477</v>
+        <v>-19.33075194395002</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.50889414216433</v>
+        <v>-3.706620246882971</v>
       </c>
       <c r="G81" t="n">
-        <v>-2.93936884323054</v>
+        <v>-2.943485387012483</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-3.3932413670821</v>
       </c>
       <c r="E82" t="n">
-        <v>-19.86908537907289</v>
+        <v>-20.12835919123913</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.539567771247354</v>
+        <v>-3.710863904843453</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.925884962291589</v>
+        <v>-2.996868452992327</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-3.404081345594149</v>
       </c>
       <c r="E83" t="n">
-        <v>-20.52693547606437</v>
+        <v>-20.80487062744162</v>
       </c>
       <c r="F83" t="n">
-        <v>-3.516178762396033</v>
+        <v>-3.733602675781475</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.639408715917841</v>
+        <v>-2.70718990712075</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-3.451619691220847</v>
       </c>
       <c r="E84" t="n">
-        <v>-21.50654089298125</v>
+        <v>-21.85613421800687</v>
       </c>
       <c r="F84" t="n">
-        <v>-3.485901142869229</v>
+        <v>-3.713054179919831</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.477181690059869</v>
+        <v>-2.516337746056991</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-3.546114457320904</v>
       </c>
       <c r="E85" t="n">
-        <v>-22.2925709720095</v>
+        <v>-22.64811421839216</v>
       </c>
       <c r="F85" t="n">
-        <v>-3.411231340990837</v>
+        <v>-3.596040689567089</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.115874304581121</v>
+        <v>-2.221721303249829</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-3.691078329580215</v>
       </c>
       <c r="E86" t="n">
-        <v>-23.67813996312753</v>
+        <v>-24.04913247120964</v>
       </c>
       <c r="F86" t="n">
-        <v>-3.377990983302682</v>
+        <v>-3.595786461210009</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.904434535600783</v>
+        <v>-2.000928864133083</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-3.897132488913116</v>
       </c>
       <c r="E87" t="n">
-        <v>-24.70645455545948</v>
+        <v>-25.10955317163662</v>
       </c>
       <c r="F87" t="n">
-        <v>-3.256504051666713</v>
+        <v>-3.474421754745713</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.746949846403719</v>
+        <v>-1.883182022750304</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-4.162813180960296</v>
       </c>
       <c r="E88" t="n">
-        <v>-26.12735151019784</v>
+        <v>-26.50621043032882</v>
       </c>
       <c r="F88" t="n">
-        <v>-3.213857244766614</v>
+        <v>-3.440746275446402</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.56825175641111</v>
+        <v>-1.658620159339166</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-4.498234404611223</v>
       </c>
       <c r="E89" t="n">
-        <v>-27.48067505652514</v>
+        <v>-27.88263697860572</v>
       </c>
       <c r="F89" t="n">
-        <v>-3.197029283130692</v>
+        <v>-3.477956506710492</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.408058557409775</v>
+        <v>-1.465704837377569</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-4.897570530491329</v>
       </c>
       <c r="E90" t="n">
-        <v>-29.12055796234291</v>
+        <v>-29.61017977754728</v>
       </c>
       <c r="F90" t="n">
-        <v>-3.279682833222756</v>
+        <v>-3.573370364725204</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.541758228199298</v>
+        <v>-1.680962920720968</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-5.371325218152218</v>
       </c>
       <c r="E91" t="n">
-        <v>-30.6365118775947</v>
+        <v>-31.17247169988369</v>
       </c>
       <c r="F91" t="n">
-        <v>-3.38214663913956</v>
+        <v>-3.685626851396438</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.433461837090265</v>
+        <v>-1.514247786559168</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-5.908501746465908</v>
       </c>
       <c r="E92" t="n">
-        <v>-32.32479106238807</v>
+        <v>-32.81356952390789</v>
       </c>
       <c r="F92" t="n">
-        <v>-3.22481350915537</v>
+        <v>-3.508801251033859</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.862418410586516</v>
+        <v>-2.010628653757042</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-6.518687749601115</v>
       </c>
       <c r="E93" t="n">
-        <v>-34.3430048755952</v>
+        <v>-34.87275077015633</v>
       </c>
       <c r="F93" t="n">
-        <v>-3.213163005791511</v>
+        <v>-3.557329533194856</v>
       </c>
       <c r="G93" t="n">
-        <v>-1.782087138756236</v>
+        <v>-1.866930963924678</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-7.185575842738381</v>
       </c>
       <c r="E94" t="n">
-        <v>-36.40176811175652</v>
+        <v>-36.92798658786317</v>
       </c>
       <c r="F94" t="n">
-        <v>-3.426563266525482</v>
+        <v>-3.813215263602318</v>
       </c>
       <c r="G94" t="n">
-        <v>-1.895780993446343</v>
+        <v>-1.971120589265503</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-7.910934747748929</v>
       </c>
       <c r="E95" t="n">
-        <v>-38.52451378078515</v>
+        <v>-39.0931443914623</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.491865731246865</v>
+        <v>-3.864965401288612</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.263815652373967</v>
+        <v>-2.290631855038995</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-8.685114176842438</v>
       </c>
       <c r="E96" t="n">
-        <v>-40.47060496469155</v>
+        <v>-41.00476318795008</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.575545972780982</v>
+        <v>-3.971726644241434</v>
       </c>
       <c r="G96" t="n">
-        <v>-2.597519705082114</v>
+        <v>-2.578667694603289</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-9.492368899573563</v>
       </c>
       <c r="E97" t="n">
-        <v>-42.61326600319256</v>
+        <v>-43.12706640185725</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.495630266534389</v>
+        <v>-3.885357448930514</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.942424472522362</v>
+        <v>-2.859091350475797</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-10.34353960712565</v>
       </c>
       <c r="E98" t="n">
-        <v>-44.9028881436096</v>
+        <v>-45.40757298897093</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.582512807566335</v>
+        <v>-4.025231935392951</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.320422927444759</v>
+        <v>-3.231403890411971</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-11.19742413063048</v>
       </c>
       <c r="E99" t="n">
-        <v>-47.04972561622667</v>
+        <v>-47.54573369665095</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.437470640845569</v>
+        <v>-3.865082737453418</v>
       </c>
       <c r="G99" t="n">
-        <v>-3.667718419242929</v>
+        <v>-3.575096184149225</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-12.1054745413553</v>
       </c>
       <c r="E100" t="n">
-        <v>-49.53552037943039</v>
+        <v>-50.00760532700313</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.524128287561637</v>
+        <v>-3.983328257536623</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.372722987465798</v>
+        <v>-4.2040718065847</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-12.97479114754151</v>
       </c>
       <c r="E101" t="n">
-        <v>-51.7929117420773</v>
+        <v>-52.2447989800311</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.575291744423902</v>
+        <v>-4.109127293229212</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.743314596984818</v>
+        <v>-4.621382765723959</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-13.95427359418112</v>
       </c>
       <c r="E102" t="n">
-        <v>-54.01372599984938</v>
+        <v>-54.41158848967206</v>
       </c>
       <c r="F102" t="n">
-        <v>-3.586683130423813</v>
+        <v>-4.131851397146632</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.454914435471156</v>
+        <v>-5.330450098653235</v>
       </c>
     </row>
   </sheetData>
